--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachana\eclipse-workspace\B03_DDDFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386390CA-238A-4318-939A-66B08C52370A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6D5AB-2C54-4F2B-8219-71ACC888ADF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="form" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ValidCredentials</t>
   </si>
@@ -52,6 +53,54 @@
   </si>
   <si>
     <t>Please enter a correct username and password. Note that both fields may be case-sensitive.</t>
+  </si>
+  <si>
+    <t>validData</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>PurchaserName</t>
+  </si>
+  <si>
+    <t>Gst</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Mobile submitted successfully !</t>
   </si>
 </sst>
 </file>
@@ -382,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -437,4 +486,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C008953-A0B4-4380-B630-2F9B1B757B55}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>6369086401</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{3886F3B5-9C84-4524-8F34-D1DBF2F5BE85}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>